--- a/data/nichao_data.xlsx
+++ b/data/nichao_data.xlsx
@@ -11,13 +11,14 @@
     <sheet name="editorgan" sheetId="2" r:id="rId2"/>
     <sheet name="addlog" sheetId="3" r:id="rId3"/>
     <sheet name="addkno" sheetId="4" r:id="rId4"/>
+    <sheet name="test" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="39">
   <si>
     <t>departmentname</t>
   </si>
@@ -46,6 +47,9 @@
     <t>phone</t>
   </si>
   <si>
+    <t>expected</t>
+  </si>
+  <si>
     <t>人事部</t>
   </si>
   <si>
@@ -61,6 +65,12 @@
     <t>99999@qq.com</t>
   </si>
   <si>
+    <t>员工信息修改成功</t>
+  </si>
+  <si>
+    <t>初级测试工程师</t>
+  </si>
+  <si>
     <t>wdepartmentname</t>
   </si>
   <si>
@@ -97,6 +107,9 @@
     <t>3月</t>
   </si>
   <si>
+    <t>暂无数据！</t>
+  </si>
+  <si>
     <t>kntitle</t>
   </si>
   <si>
@@ -116,6 +129,12 @@
   </si>
   <si>
     <t>运动</t>
+  </si>
+  <si>
+    <t>word</t>
+  </si>
+  <si>
+    <t>--你v好--</t>
   </si>
 </sst>
 </file>
@@ -123,10 +142,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -145,6 +164,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -153,8 +209,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -167,45 +232,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -221,15 +257,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -243,34 +278,18 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -290,61 +309,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -356,121 +489,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -481,6 +500,41 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -495,6 +549,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -516,29 +579,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -557,30 +600,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -589,10 +608,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -601,133 +620,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -736,6 +755,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1086,13 +1108,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="1" width="17.25" customWidth="1"/>
     <col min="2" max="2" width="16.875" customWidth="1"/>
@@ -1103,9 +1125,10 @@
     <col min="7" max="7" width="16.625" customWidth="1"/>
     <col min="8" max="8" width="16.125" customWidth="1"/>
     <col min="9" max="9" width="21.25" customWidth="1"/>
+    <col min="10" max="10" width="16.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1133,19 +1156,22 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2">
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E2">
         <v>11</v>
@@ -1154,13 +1180,27 @@
         <v>9</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I2">
         <v>18782978888</v>
+      </c>
+      <c r="J2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="4:6">
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3">
+        <v>11</v>
+      </c>
+      <c r="F3">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1176,32 +1216,39 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="18.125" customWidth="1"/>
     <col min="2" max="2" width="14.375" customWidth="1"/>
+    <col min="3" max="3" width="13.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>20</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1214,46 +1261,53 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="21.375" customWidth="1"/>
     <col min="2" max="2" width="14.625" customWidth="1"/>
     <col min="3" max="3" width="14.375" customWidth="1"/>
     <col min="4" max="4" width="11.375" customWidth="1"/>
+    <col min="5" max="5" width="22.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D1" t="s">
-        <v>21</v>
+        <v>24</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>28</v>
+      </c>
+      <c r="E2" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1266,44 +1320,81 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="13.25" customWidth="1"/>
     <col min="2" max="2" width="23.125" customWidth="1"/>
+    <col min="4" max="5" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D1" t="s">
-        <v>28</v>
+        <v>32</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" t="s">
         <v>29</v>
       </c>
-      <c r="B2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" t="s">
-        <v>32</v>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <cols>
+    <col min="1" max="1" width="16.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
